--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="129">
   <si>
     <t>土地坐落</t>
   </si>
@@ -185,6 +185,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>太平洋電線電纜股份有限 公司</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
   </si>
   <si>
     <t>4，870</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1428,13 +1440,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1453,13 +1465,22 @@
       <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -1476,13 +1497,22 @@
       <c r="G2" s="2">
         <v>2470</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -1499,13 +1529,22 @@
       <c r="G3" s="2">
         <v>142530</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -1522,13 +1561,22 @@
       <c r="G4" s="2">
         <v>85000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -1545,13 +1593,22 @@
       <c r="G5" s="2">
         <v>23880</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -1568,13 +1625,22 @@
       <c r="G6" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -1591,13 +1657,22 @@
       <c r="G7" s="2">
         <v>10770</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -1612,15 +1687,24 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -1637,13 +1721,22 @@
       <c r="G9" s="2">
         <v>131320</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1660,19 +1753,28 @@
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -1683,13 +1785,22 @@
       <c r="G11" s="2">
         <v>27580</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1706,13 +1817,22 @@
       <c r="G12" s="2">
         <v>590000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1728,6 +1848,15 @@
       </c>
       <c r="G13" s="2">
         <v>4310</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -1745,22 +1874,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1771,13 +1900,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -1797,13 +1926,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -1823,13 +1952,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -1849,13 +1978,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -1875,13 +2004,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -1901,13 +2030,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -1927,13 +2056,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -1953,13 +2082,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -1979,13 +2108,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -1994,7 +2123,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2005,13 +2134,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2031,13 +2160,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2057,13 +2186,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2083,13 +2212,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2109,13 +2238,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2127,7 +2256,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2135,13 +2264,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2161,13 +2290,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2187,13 +2316,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2223,19 +2352,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2246,7 +2375,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -2261,7 +2390,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2269,7 +2398,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -2292,7 +2421,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -2315,7 +2444,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -2338,7 +2467,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -2361,7 +2490,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -2384,7 +2513,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -2407,13 +2536,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -2430,7 +2559,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -2453,7 +2582,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -2476,7 +2605,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
@@ -2509,13 +2638,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2523,10 +2652,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -2537,10 +2666,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2551,10 +2680,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -2565,10 +2694,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2579,10 +2708,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2593,10 +2722,10 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2607,10 +2736,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2621,10 +2750,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2635,10 +2764,10 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -2649,10 +2778,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -2663,10 +2792,10 @@
         <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
@@ -2677,10 +2806,10 @@
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>44</v>
@@ -2691,10 +2820,10 @@
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -2705,10 +2834,10 @@
         <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
@@ -2719,10 +2848,10 @@
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -2733,10 +2862,10 @@
         <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2"/>
     </row>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="131">
   <si>
     <t>土地坐落</t>
   </si>
@@ -185,6 +185,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -194,7 +197,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>太平洋電線電纜股份有限 公司</t>
+    <t>太平洋電線電纜股份有限公司</t>
   </si>
   <si>
     <t>華泰電子股份有限公司</t>
@@ -209,7 +212,7 @@
     <t>友達光電股份有限公司</t>
   </si>
   <si>
-    <t>春雨開發股份有限公司（原 正華）</t>
+    <t>春雨開發股份有限公司（原正華）</t>
   </si>
   <si>
     <t>茂德科技股份有限公司</t>
@@ -221,16 +224,19 @@
     <t>中華映管股份有限公司</t>
   </si>
   <si>
-    <t>台灣土地開發股份有限公 司</t>
+    <t>台灣土地開發股份有限公司</t>
   </si>
   <si>
     <t>立端科技股份有限公司</t>
   </si>
   <si>
-    <t>2，758</t>
-  </si>
-  <si>
-    <t>4，870</t>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-30</t>
@@ -1440,13 +1446,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1474,13 +1480,16 @@
       <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -1498,21 +1507,24 @@
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="2">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -1530,21 +1542,24 @@
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -1562,21 +1577,24 @@
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -1594,21 +1612,24 @@
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="2">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -1626,21 +1647,24 @@
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -1658,21 +1682,24 @@
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -1687,24 +1714,27 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -1722,21 +1752,24 @@
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1754,27 +1787,30 @@
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="2">
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -1786,21 +1822,24 @@
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="2">
+        <v>72</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1818,21 +1857,24 @@
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2">
+        <v>72</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1850,12 +1892,15 @@
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="2">
+        <v>72</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
         <v>1366</v>
       </c>
     </row>
@@ -1874,22 +1919,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1900,13 +1945,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -1926,13 +1971,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -1952,13 +1997,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -1978,13 +2023,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2004,13 +2049,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2030,13 +2075,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2056,13 +2101,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2082,13 +2127,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2108,13 +2153,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2123,7 +2168,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2134,13 +2179,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2160,13 +2205,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2186,13 +2231,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2212,13 +2257,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2238,13 +2283,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2256,7 +2301,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2264,13 +2309,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2290,13 +2335,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2316,13 +2361,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2352,19 +2397,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2375,7 +2420,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -2390,7 +2435,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2398,7 +2443,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -2421,7 +2466,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -2444,7 +2489,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -2467,7 +2512,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -2490,7 +2535,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -2513,7 +2558,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -2536,13 +2581,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -2559,7 +2604,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -2582,7 +2627,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -2605,7 +2650,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
@@ -2638,13 +2683,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2652,10 +2697,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -2666,10 +2711,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2680,10 +2725,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -2694,10 +2739,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2708,10 +2753,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2722,10 +2767,10 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2736,10 +2781,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2750,10 +2795,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2764,10 +2809,10 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -2778,10 +2823,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -2792,10 +2837,10 @@
         <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
@@ -2806,10 +2851,10 @@
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>44</v>
@@ -2820,10 +2865,10 @@
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -2834,10 +2879,10 @@
         <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
@@ -2848,10 +2893,10 @@
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -2862,10 +2907,10 @@
         <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2"/>
     </row>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="136">
   <si>
     <t>土地坐落</t>
   </si>
@@ -188,6 +188,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -197,6 +200,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>太平洋電線電纜股份有限公司</t>
   </si>
   <si>
@@ -239,7 +248,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>tmp22e71</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1446,13 +1461,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1483,13 +1498,22 @@
       <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -1507,24 +1531,33 @@
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2">
         <v>72</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -1542,24 +1575,33 @@
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -1577,24 +1619,33 @@
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -1612,24 +1663,33 @@
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="2">
+        <v>76</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -1647,24 +1707,33 @@
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -1682,24 +1751,33 @@
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="2">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -1714,27 +1792,36 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="2">
+        <v>76</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -1752,24 +1839,33 @@
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="2">
+        <v>76</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1787,30 +1883,39 @@
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="2">
+        <v>76</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -1822,24 +1927,33 @@
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="2">
+        <v>76</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1857,24 +1971,33 @@
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="2">
+        <v>76</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1892,16 +2015,25 @@
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="2">
         <v>1366</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1919,22 +2051,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1945,13 +2077,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -1971,13 +2103,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -1997,13 +2129,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2023,13 +2155,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2049,13 +2181,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2075,13 +2207,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2101,13 +2233,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2127,13 +2259,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2153,13 +2285,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2168,7 +2300,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2179,13 +2311,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2205,13 +2337,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2231,13 +2363,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2257,13 +2389,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2283,13 +2415,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2301,7 +2433,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2309,13 +2441,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2335,13 +2467,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2361,13 +2493,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2397,19 +2529,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2420,7 +2552,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -2435,7 +2567,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2443,7 +2575,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -2466,7 +2598,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -2489,7 +2621,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -2512,7 +2644,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -2535,7 +2667,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -2558,7 +2690,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -2581,13 +2713,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -2604,7 +2736,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -2627,7 +2759,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -2650,7 +2782,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
@@ -2683,13 +2815,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2697,10 +2829,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -2711,10 +2843,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2725,10 +2857,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -2739,10 +2871,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2753,10 +2885,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2767,10 +2899,10 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2781,10 +2913,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2795,10 +2927,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2809,10 +2941,10 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -2823,10 +2955,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -2837,10 +2969,10 @@
         <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
@@ -2851,10 +2983,10 @@
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>44</v>
@@ -2865,10 +2997,10 @@
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -2879,10 +3011,10 @@
         <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
@@ -2893,10 +3025,10 @@
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -2907,10 +3039,10 @@
         <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2"/>
     </row>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,9 +21,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="136">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="137">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市樹林區山佳段05670000地號</t>
+  </si>
+  <si>
+    <t>10000分之162</t>
+  </si>
+  <si>
+    <t>洪佳君</t>
+  </si>
+  <si>
+    <t>97年04月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>tmp22e71</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -35,7 +107,7 @@
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取得）.時間</t>
+    <t>登記（取得）時間</t>
   </si>
   <si>
     <t>登記（取得）原因</t>
@@ -44,28 +116,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市樹林區山佳段0567-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 162</t>
-  </si>
-  <si>
-    <t>洪佳君</t>
-  </si>
-  <si>
-    <t>97年04月 09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>新北市樹林區山佳段01069-000 建號</t>
+    <t>新北市樹林區山佳段01069000建號</t>
   </si>
   <si>
     <t>新北市樹林區中山路</t>
@@ -74,10 +125,10 @@
     <t>全部</t>
   </si>
   <si>
-    <t>100 年 01 月14日</t>
-  </si>
-  <si>
-    <t>100 年 01 月14曰</t>
+    <t>100年01月14日</t>
+  </si>
+  <si>
+    <t>100年01月14曰</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -95,10 +146,10 @@
     <t>中華</t>
   </si>
   <si>
-    <t>97年06月 26日</t>
-  </si>
-  <si>
-    <t>99年09月 17日</t>
+    <t>97年06月26日</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -116,16 +167,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司樹 林鎮前街郵局(第85支局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司樹 林大同郵局(第90支局）</t>
+    <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行板橋分 行</t>
+    <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
     <t>台新國際商業銀行營業部</t>
@@ -134,7 +185,7 @@
     <t>台北縣樹林市農會信用部</t>
   </si>
   <si>
-    <t>花旗（台灣)商業銀行樹林 分行</t>
+    <t>花旗（台灣)商業銀行樹林分行</t>
   </si>
   <si>
     <t>中華郵政劃撥儲金</t>
@@ -149,28 +200,16 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>新臺幣_</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>黃〇潮</t>
   </si>
   <si>
     <t>黃〇誼</t>
   </si>
   <si>
-    <t>1,624，866</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1624866</t>
   </si>
   <si>
     <t>quantity</t>
@@ -185,27 +224,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>太平洋電線電纜股份有限公司</t>
   </si>
   <si>
@@ -248,15 +266,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-30</t>
-  </si>
-  <si>
-    <t>tmp22e71</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -272,16 +281,16 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>坦全-穩定月收</t>
-  </si>
-  <si>
-    <t>坦全-金磚四國</t>
+    <t>坦全穩定月收</t>
+  </si>
+  <si>
+    <t>坦全金磚四國</t>
   </si>
   <si>
     <t>M&amp;G全球民生</t>
   </si>
   <si>
-    <t>雷曼兄弟1年台 幣連結3檔全球 鞋</t>
+    <t>雷曼兄弟1年台幣連結3檔全球鞋</t>
   </si>
   <si>
     <t>德盛綠能趨勢</t>
@@ -290,34 +299,31 @@
     <t>寶來台灣50</t>
   </si>
   <si>
-    <t>貝萊德新興歐洲 歐元</t>
-  </si>
-  <si>
-    <t>貝萊德新能源美 元</t>
-  </si>
-  <si>
-    <t>富達新興市場基 金</t>
+    <t>貝萊德新興歐洲歐元</t>
+  </si>
+  <si>
+    <t>貝萊德新能源美元</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
   </si>
   <si>
     <t>摩根美複合收益</t>
   </si>
   <si>
-    <t>中國信託商業 銀行板橋分行</t>
-  </si>
-  <si>
-    <t>中國信託商業 銀行敦南分行</t>
+    <t>中國信託商業銀行敦南分行</t>
   </si>
   <si>
     <t>8220174中國信</t>
   </si>
   <si>
-    <t>中國信託商業 銀行忠孝分行</t>
+    <t>中國信託商業銀行忠孝分行</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>464，365.27</t>
+    <t>464365.27</t>
   </si>
   <si>
     <t>價額</t>
@@ -356,10 +362,10 @@
     <t>仁寶（自行保存）</t>
   </si>
   <si>
-    <t>5，000</t>
-  </si>
-  <si>
-    <t>60，000</t>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>60000</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -371,7 +377,7 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>南山人壽 g</t>
+    <t>南山人壽g</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -389,9 +395,6 @@
     <t>中華郵政</t>
   </si>
   <si>
-    <t>中華郵政 •</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
@@ -401,19 +404,19 @@
     <t>南山伴我一生變額壽險</t>
   </si>
   <si>
-    <t>南山好吉利21年期還本養老 保險</t>
+    <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
     <t>南山新新增額養老保險</t>
   </si>
   <si>
-    <t>中泰人壽金富貴外幣變額年 金保險</t>
+    <t>中泰人壽金富貴外幣變額年金保險</t>
   </si>
   <si>
     <t>世界觀外幣變額萬能壽險</t>
   </si>
   <si>
-    <t>國泰美滿人生3 12終身壽 險</t>
+    <t>國泰美滿人生312終身壽險</t>
   </si>
   <si>
     <t>六年期吉利保險</t>
@@ -425,7 +428,7 @@
     <t>新光人壽全意終身還本保險</t>
   </si>
   <si>
-    <t>南山人壽鴻利發還本終身分 紅保險</t>
+    <t>南山人壽鴻利發還本終身分紅保險</t>
   </si>
   <si>
     <t>保險</t>
@@ -787,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,31 +818,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1518.27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>647200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -857,25 +902,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -883,22 +928,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>109.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>5232800</v>
@@ -909,22 +954,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>294.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2">
         <v>223400</v>
@@ -935,22 +980,22 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>307.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H4" s="2">
         <v>208700</v>
@@ -971,22 +1016,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -994,19 +1039,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>505000</v>
@@ -1017,19 +1062,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>1198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>389100</v>
@@ -1050,22 +1095,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1073,16 +1118,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1094,20 +1139,20 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1115,16 +1160,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1136,16 +1181,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1157,16 +1202,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1178,16 +1223,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1199,16 +1244,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1220,16 +1265,16 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1241,16 +1286,16 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>1079</v>
@@ -1264,16 +1309,16 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>0.36</v>
@@ -1287,16 +1332,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1308,16 +1353,16 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1329,16 +1374,16 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1350,16 +1395,16 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1371,16 +1416,16 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1392,16 +1437,16 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>129.18</v>
@@ -1415,16 +1460,16 @@
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2">
         <v>19013</v>
@@ -1438,16 +1483,16 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1469,43 +1514,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1513,10 +1558,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>247</v>
@@ -1525,28 +1570,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>72</v>
@@ -1557,10 +1602,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>14253</v>
@@ -1569,28 +1614,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>73</v>
@@ -1601,10 +1646,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1613,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>74</v>
@@ -1645,10 +1690,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>2388</v>
@@ -1657,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2">
         <v>75</v>
@@ -1689,10 +1734,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>40000</v>
@@ -1701,28 +1746,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
         <v>76</v>
@@ -1733,10 +1778,10 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>1077</v>
@@ -1745,28 +1790,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2">
         <v>77</v>
@@ -1777,10 +1822,10 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -1789,28 +1834,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2">
         <v>78</v>
@@ -1821,10 +1866,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>13132</v>
@@ -1833,28 +1878,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2">
         <v>79</v>
@@ -1865,10 +1910,10 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>102000</v>
@@ -1877,28 +1922,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N10" s="2">
         <v>80</v>
@@ -1909,40 +1954,40 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2">
         <v>81</v>
@@ -1953,10 +1998,10 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>59000</v>
@@ -1965,28 +2010,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N12" s="2">
         <v>82</v>
@@ -1997,10 +2042,10 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>431</v>
@@ -2009,28 +2054,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <v>1366</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2">
         <v>83</v>
@@ -2051,25 +2096,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2077,13 +2122,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2092,7 +2137,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2103,13 +2148,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2118,7 +2163,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2129,13 +2174,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2144,7 +2189,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2155,13 +2200,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2170,7 +2215,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2181,13 +2226,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2196,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2207,13 +2252,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2222,7 +2267,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2233,13 +2278,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2248,7 +2293,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2259,13 +2304,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2274,7 +2319,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2285,13 +2330,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2300,7 +2345,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2311,13 +2356,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2326,7 +2371,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2337,13 +2382,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2352,7 +2397,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2363,13 +2408,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2378,7 +2423,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2389,13 +2434,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2404,7 +2449,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2415,13 +2460,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2430,10 +2475,10 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2441,13 +2486,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2456,7 +2501,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2467,13 +2512,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2482,7 +2527,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2493,13 +2538,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2508,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2529,22 +2574,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2552,10 +2597,10 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>6000</v>
@@ -2564,10 +2609,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2575,10 +2620,10 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>4462</v>
@@ -2587,7 +2632,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2598,10 +2643,10 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>7199</v>
@@ -2610,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2621,10 +2666,10 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>43000</v>
@@ -2633,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2644,10 +2689,10 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2656,7 +2701,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2667,10 +2712,10 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2679,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2690,10 +2735,10 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
@@ -2702,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2713,19 +2758,19 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2736,10 +2781,10 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>3040</v>
@@ -2748,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2759,10 +2804,10 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
         <v>6210</v>
@@ -2771,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -2782,10 +2827,10 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>250</v>
@@ -2794,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2">
         <v>2500</v>
@@ -2815,13 +2860,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2829,13 +2874,13 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2843,13 +2888,13 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2857,13 +2902,13 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2871,13 +2916,13 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2885,13 +2930,13 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2899,13 +2944,13 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2913,13 +2958,13 @@
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2927,13 +2972,13 @@
         <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2941,13 +2986,13 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2955,13 +3000,13 @@
         <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2969,13 +3014,13 @@
         <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2983,13 +3028,13 @@
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2997,13 +3042,13 @@
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3011,13 +3056,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3025,13 +3070,13 @@
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3039,10 +3084,10 @@
         <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2"/>
     </row>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -65,10 +65,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市樹林區山佳段05670000地號</t>
-  </si>
-  <si>
-    <t>10000分之162</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市樹林區山佳段01069000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>洪佳君</t>
@@ -80,7 +86,124 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>land</t>
+    <t>新北市樹林區中山路</t>
+  </si>
+  <si>
+    <t>100年01月14日</t>
+  </si>
+  <si>
+    <t>100年01月14曰</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>97年06月26日</t>
+  </si>
+  <si>
+    <t>中華</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
+  </si>
+  <si>
+    <t>中華郵政劃撥儲金</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>黃〇潮</t>
+  </si>
+  <si>
+    <t>黃〇誼</t>
+  </si>
+  <si>
+    <t>1624866</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>華泰電子股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣光罩股份有限公司</t>
+  </si>
+  <si>
+    <t>大同股份有限公司</t>
+  </si>
+  <si>
+    <t>友達光電股份有限公司</t>
+  </si>
+  <si>
+    <t>春雨開發股份有限公司（原正華）</t>
+  </si>
+  <si>
+    <t>茂德科技股份有限公司</t>
+  </si>
+  <si>
+    <t>金橋科技股份有限公司</t>
+  </si>
+  <si>
+    <t>太平洋電線電纜股份有限公司</t>
+  </si>
+  <si>
+    <t>中華映管股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣土地開發股份有限公司</t>
+  </si>
+  <si>
+    <t>立端科技股份有限公司</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -89,198 +212,9 @@
     <t>2013-12-30</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>tmp22e71</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市樹林區山佳段01069000建號</t>
-  </si>
-  <si>
-    <t>新北市樹林區中山路</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100年01月14日</t>
-  </si>
-  <si>
-    <t>100年01月14曰</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>中華</t>
-  </si>
-  <si>
-    <t>97年06月26日</t>
-  </si>
-  <si>
-    <t>99年09月17日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行樹林分行</t>
-  </si>
-  <si>
-    <t>中華郵政劃撥儲金</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>黃〇潮</t>
-  </si>
-  <si>
-    <t>黃〇誼</t>
-  </si>
-  <si>
-    <t>1624866</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>太平洋電線電纜股份有限公司</t>
-  </si>
-  <si>
-    <t>華泰電子股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣光罩股份有限公司</t>
-  </si>
-  <si>
-    <t>大同股份有限公司</t>
-  </si>
-  <si>
-    <t>友達光電股份有限公司</t>
-  </si>
-  <si>
-    <t>春雨開發股份有限公司（原正華）</t>
-  </si>
-  <si>
-    <t>茂德科技股份有限公司</t>
-  </si>
-  <si>
-    <t>金橋科技股份有限公司</t>
-  </si>
-  <si>
-    <t>中華映管股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣土地開發股份有限公司</t>
-  </si>
-  <si>
-    <t>立端科技股份有限公司</t>
-  </si>
-  <si>
-    <t>2758</t>
-  </si>
-  <si>
-    <t>4870</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>坦全穩定月收</t>
   </si>
   <si>
@@ -326,12 +260,12 @@
     <t>464365.27</t>
   </si>
   <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>鐯德（自行保存）</t>
   </si>
   <si>
+    <t>60000</t>
+  </si>
+  <si>
     <t>奈普(自行保存）</t>
   </si>
   <si>
@@ -365,21 +299,12 @@
     <t>5000</t>
   </si>
   <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽g</t>
   </si>
   <si>
+    <t>南山伴我一生變額壽險</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
@@ -399,9 +324,6 @@
   </si>
   <si>
     <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>南山伴我一生變額壽險</t>
   </si>
   <si>
     <t>南山好吉利21年期還本養老保險</t>
@@ -790,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,51 +761,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>1518.27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>647200</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1366</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -894,7 +775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -902,102 +783,76 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>109.85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5232800</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>294.5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>109.85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="2">
-        <v>5232800</v>
+        <v>223400</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="2">
-        <v>294.5</v>
+        <v>307.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
-        <v>223400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2">
-        <v>307.8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
         <v>208700</v>
       </c>
     </row>
@@ -1008,7 +863,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1016,67 +871,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>505000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>1497</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1198</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
         <v>389100</v>
       </c>
     </row>
@@ -1087,7 +919,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1095,407 +927,384 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>763954</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>763954</v>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>62</v>
+      <c r="G3" s="2">
+        <v>30298</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>30298</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>37420</v>
+        <v>2162368</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2162368</v>
+        <v>10374740</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>10374740</v>
+        <v>116250</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>116250</v>
+        <v>206247</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1079</v>
+      </c>
       <c r="G9" s="2">
-        <v>206247</v>
+        <v>32370</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2">
-        <v>1079</v>
+        <v>0.36</v>
       </c>
       <c r="G10" s="2">
-        <v>32370</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>10.8</v>
+        <v>300434</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>300434</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>85</v>
+        <v>22964</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>22964</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>10939</v>
+        <v>88230</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>129.18</v>
+      </c>
       <c r="G16" s="2">
-        <v>88230</v>
+        <v>3875.4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>129.18</v>
+        <v>19013</v>
       </c>
       <c r="G17" s="2">
-        <v>3875.4</v>
+        <v>570390</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>19013</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>570390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
         <v>358925</v>
       </c>
     </row>
@@ -1506,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1520,16 +1329,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1555,529 +1364,485 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>247</v>
+        <v>14253</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2">
-        <v>2470</v>
+        <v>142530</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N2" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
-        <v>14253</v>
+        <v>8500</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2">
-        <v>142530</v>
+        <v>85000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N3" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>8500</v>
+        <v>2388</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
-        <v>85000</v>
+        <v>23880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>2388</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
-        <v>23880</v>
+        <v>400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>40000</v>
+        <v>1077</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
-        <v>400000</v>
+        <v>10770</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N6" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>1077</v>
+        <v>487</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10770</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N7" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>487</v>
+        <v>13132</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <v>131320</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N8" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>13132</v>
+        <v>102000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
-        <v>131320</v>
+        <v>1020000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N9" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
-        <v>102000</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
-        <v>1020000</v>
+        <v>27580</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N10" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>59000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
-        <v>27580</v>
+        <v>590000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N11" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>59000</v>
+        <v>431</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2">
-        <v>590000</v>
+        <v>4310</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N12" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
-        <v>431</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4310</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1366</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="2">
         <v>83</v>
       </c>
     </row>
@@ -2088,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2096,466 +1861,440 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2110.818</v>
+      </c>
+      <c r="F1" s="1">
+        <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="H1" s="1">
+        <v>719939.86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
-        <v>2110.818</v>
+        <v>452.06</v>
       </c>
       <c r="F2" s="2">
-        <v>11.55</v>
+        <v>16.16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2">
-        <v>719939.86</v>
+        <v>215725.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
-        <v>452.06</v>
+        <v>1287.26</v>
       </c>
       <c r="F3" s="2">
-        <v>16.16</v>
+        <v>11.58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
-        <v>215725.2</v>
+        <v>14906.47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
-        <v>1287.26</v>
+        <v>1256.14</v>
       </c>
       <c r="F4" s="2">
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2">
-        <v>14906.47</v>
+        <v>429546.37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2">
-        <v>1256.14</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>11.58</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
-        <v>429546.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>28105.7</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>205171.61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2">
-        <v>28105.7</v>
+        <v>4913</v>
       </c>
       <c r="F7" s="2">
-        <v>7.3</v>
+        <v>54.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
-        <v>205171.61</v>
+        <v>269723.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
-        <v>4913</v>
+        <v>1665</v>
       </c>
       <c r="F8" s="2">
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
-        <v>269723.7</v>
+        <v>91408.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
-        <v>1665</v>
+        <v>55.39</v>
       </c>
       <c r="F9" s="2">
-        <v>54.9</v>
+        <v>91.23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2">
-        <v>91408.5</v>
+        <v>199248.85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
-        <v>55.39</v>
+        <v>1282.41</v>
       </c>
       <c r="F10" s="2">
-        <v>91.23</v>
+        <v>6.56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2">
-        <v>199248.85</v>
+        <v>248424.36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
-        <v>1282.41</v>
+        <v>1278.65</v>
       </c>
       <c r="F11" s="2">
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2">
-        <v>248424.36</v>
+        <v>247695.99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
-        <v>1278.65</v>
+        <v>926.45</v>
       </c>
       <c r="F12" s="2">
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2">
-        <v>247695.99</v>
+        <v>179468.93</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2">
-        <v>926.45</v>
+        <v>323.44</v>
       </c>
       <c r="F13" s="2">
-        <v>6.56</v>
+        <v>20.66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2">
-        <v>179468.93</v>
+        <v>197327.44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
-        <v>323.44</v>
+        <v>1471.02</v>
       </c>
       <c r="F14" s="2">
-        <v>20.66</v>
+        <v>10.69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="2">
-        <v>197327.44</v>
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2">
-        <v>1471.02</v>
+        <v>1177.66</v>
       </c>
       <c r="F15" s="2">
-        <v>10.69</v>
+        <v>11.55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="H15" s="2">
+        <v>401666.26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2">
-        <v>1177.66</v>
+        <v>1229.19</v>
       </c>
       <c r="F16" s="2">
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2">
-        <v>401666.26</v>
+        <v>419241.68</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
-        <v>1229.19</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2">
-        <v>11.55</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2">
-        <v>419241.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>111</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2305,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2574,125 +2313,125 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="D1" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>6000</v>
+        <v>4462</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44620</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
-        <v>4462</v>
+        <v>7199</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2">
-        <v>44620</v>
+        <v>71990</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>7199</v>
+        <v>43000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
-        <v>71990</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>43000</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
-        <v>430000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2701,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2709,13 +2448,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2724,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2732,116 +2471,93 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1000</v>
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3040</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
-        <v>50000</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
-        <v>3040</v>
+        <v>6210</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
-        <v>30400</v>
+        <v>62100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
-        <v>6210</v>
+        <v>250</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
-        <v>62100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>127</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2">
-        <v>250</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2">
         <v>2500</v>
       </c>
     </row>
@@ -2852,7 +2568,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2860,236 +2576,222 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>154</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -71,24 +71,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市樹林區山佳段05670000地號</t>
+  </si>
+  <si>
+    <t>10000分之162</t>
+  </si>
+  <si>
+    <t>洪佳君</t>
+  </si>
+  <si>
+    <t>97年04月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>tmp22e71</t>
+  </si>
+  <si>
     <t>新北市樹林區山佳段01069000建號</t>
   </si>
   <si>
+    <t>新北市樹林區中山路</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>洪佳君</t>
-  </si>
-  <si>
-    <t>97年04月09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>新北市樹林區中山路</t>
-  </si>
-  <si>
     <t>100年01月14日</t>
   </si>
   <si>
@@ -143,9 +164,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>黃〇潮</t>
   </si>
   <si>
@@ -164,6 +182,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>太平洋電線電纜股份有限公司</t>
+  </si>
+  <si>
     <t>華泰電子股份有限公司</t>
   </si>
   <si>
@@ -185,9 +206,6 @@
     <t>金橋科技股份有限公司</t>
   </si>
   <si>
-    <t>太平洋電線電纜股份有限公司</t>
-  </si>
-  <si>
     <t>中華映管股份有限公司</t>
   </si>
   <si>
@@ -204,15 +222,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-30</t>
-  </si>
-  <si>
-    <t>tmp22e71</t>
   </si>
   <si>
     <t>坦全穩定月收</t>
@@ -712,13 +721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,6 +775,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1518.27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>647200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>24.595974</v>
       </c>
     </row>
   </sheetData>
@@ -775,85 +837,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>109.85</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>5232800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>294.5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>223400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5232800</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>109.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
-        <v>307.8</v>
+        <v>294.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2">
+        <v>223400</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>307.8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
         <v>208700</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>307.8</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1">
         <v>1497</v>
@@ -880,7 +1076,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -891,24 +1087,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>1198</v>
+        <v>1497</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
         <v>389100</v>
       </c>
     </row>
@@ -919,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -927,13 +1146,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -945,366 +1164,387 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
+      <c r="G2" s="2">
+        <v>763954</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>30298</v>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>37420</v>
+        <v>30298</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2162368</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>10374740</v>
+        <v>2162368</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>116250</v>
+        <v>10374740</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>206247</v>
+        <v>116250</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1079</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>32370</v>
+        <v>206247</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>0.36</v>
+        <v>1079</v>
       </c>
       <c r="G10" s="2">
-        <v>10.8</v>
+        <v>32370</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.36</v>
+      </c>
       <c r="G11" s="2">
-        <v>300434</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>85</v>
+        <v>300434</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>22964</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>10939</v>
+        <v>22964</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>88230</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2">
-        <v>129.18</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>3875.4</v>
+        <v>88230</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>19013</v>
+        <v>129.18</v>
       </c>
       <c r="G17" s="2">
-        <v>570390</v>
+        <v>3875.4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19013</v>
+      </c>
+      <c r="G18" s="2">
+        <v>570390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>358925</v>
       </c>
     </row>
@@ -1315,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1329,13 +1569,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1364,485 +1604,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>14253</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>142530</v>
+        <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>8500</v>
+        <v>14253</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>85000</v>
+        <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>2388</v>
+        <v>8500</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>23880</v>
+        <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>40000</v>
+        <v>2388</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>400000</v>
+        <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>1077</v>
+        <v>40000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
-        <v>10770</v>
+        <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>487</v>
+        <v>1077</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>13132</v>
+        <v>487</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
-        <v>131320</v>
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>102000</v>
+        <v>13132</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
-        <v>1020000</v>
+        <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
+      <c r="D10" s="2">
+        <v>102000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>27580</v>
+        <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
-        <v>59000</v>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
-        <v>590000</v>
+        <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>431</v>
+        <v>59000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
-        <v>4310</v>
+        <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="2">
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>431</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4310</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="2">
         <v>83</v>
       </c>
     </row>
@@ -1853,7 +2137,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1861,13 +2145,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -1876,7 +2160,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -1884,417 +2168,443 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
-        <v>452.06</v>
+        <v>2110.818</v>
       </c>
       <c r="F2" s="2">
-        <v>16.16</v>
+        <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
-        <v>215725.2</v>
+        <v>719939.86</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
-        <v>1287.26</v>
+        <v>452.06</v>
       </c>
       <c r="F3" s="2">
-        <v>11.58</v>
+        <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
-        <v>14906.47</v>
+        <v>215725.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
-        <v>1256.14</v>
+        <v>1287.26</v>
       </c>
       <c r="F4" s="2">
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
-        <v>429546.37</v>
+        <v>14906.47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
+        <v>1256.14</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>429546.37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
-        <v>28105.7</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2">
-        <v>205171.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
-        <v>4913</v>
+        <v>28105.7</v>
       </c>
       <c r="F7" s="2">
-        <v>54.9</v>
+        <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2">
-        <v>269723.7</v>
+        <v>205171.61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
-        <v>1665</v>
+        <v>4913</v>
       </c>
       <c r="F8" s="2">
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2">
-        <v>91408.5</v>
+        <v>269723.7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E9" s="2">
-        <v>55.39</v>
+        <v>1665</v>
       </c>
       <c r="F9" s="2">
-        <v>91.23</v>
+        <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2">
-        <v>199248.85</v>
+        <v>91408.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
-        <v>1282.41</v>
+        <v>55.39</v>
       </c>
       <c r="F10" s="2">
-        <v>6.56</v>
+        <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2">
-        <v>248424.36</v>
+        <v>199248.85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="2">
-        <v>1278.65</v>
+        <v>1282.41</v>
       </c>
       <c r="F11" s="2">
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2">
-        <v>247695.99</v>
+        <v>248424.36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E12" s="2">
-        <v>926.45</v>
+        <v>1278.65</v>
       </c>
       <c r="F12" s="2">
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2">
-        <v>179468.93</v>
+        <v>247695.99</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="2">
-        <v>323.44</v>
+        <v>926.45</v>
       </c>
       <c r="F13" s="2">
-        <v>20.66</v>
+        <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2">
-        <v>197327.44</v>
+        <v>179468.93</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="2">
-        <v>1471.02</v>
+        <v>323.44</v>
       </c>
       <c r="F14" s="2">
-        <v>10.69</v>
+        <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="H14" s="2">
+        <v>197327.44</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="2">
-        <v>1177.66</v>
+        <v>1471.02</v>
       </c>
       <c r="F15" s="2">
-        <v>11.55</v>
+        <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2">
-        <v>401666.26</v>
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" s="2">
-        <v>1229.19</v>
+        <v>1177.66</v>
       </c>
       <c r="F16" s="2">
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2">
-        <v>419241.68</v>
+        <v>401666.26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" s="2">
+        <v>1229.19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11.55</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2">
+        <v>419241.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2">
         <v>50</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2305,7 +2615,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2313,10 +2623,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1">
         <v>6000</v>
@@ -2325,113 +2635,113 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>4462</v>
+        <v>6000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44620</v>
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>7199</v>
+        <v>4462</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>71990</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>43000</v>
+        <v>7199</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>430000</v>
+        <v>71990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>1000</v>
+        <v>43000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>10000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2440,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2448,13 +2758,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2463,7 +2773,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2471,93 +2781,116 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3040</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
-        <v>30400</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>6210</v>
+        <v>3040</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>62100</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>250</v>
+        <v>6210</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>250</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2">
         <v>2500</v>
       </c>
     </row>
@@ -2568,7 +2901,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2576,10 +2909,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -2587,13 +2920,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2601,13 +2934,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2615,13 +2948,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2629,13 +2962,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2643,13 +2976,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2657,13 +2990,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2671,13 +3004,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -2685,113 +3018,127 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>151</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>154</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -116,13 +116,16 @@
     <t>100年01月14曰</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>Toyota</t>
   </si>
   <si>
+    <t>中華</t>
+  </si>
+  <si>
     <t>97年06月26日</t>
-  </si>
-  <si>
-    <t>中華</t>
   </si>
   <si>
     <t>99年09月17日</t>
@@ -1059,38 +1062,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>1497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -1099,7 +1123,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1107,8 +1131,29 @@
       <c r="G2" s="2">
         <v>505000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
@@ -1122,13 +1167,34 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>389100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1146,13 +1212,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1167,13 +1233,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1188,20 +1254,20 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1209,16 +1275,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1230,16 +1296,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1251,13 +1317,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1272,13 +1338,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1293,13 +1359,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1314,13 +1380,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1335,13 +1401,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1358,13 +1424,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1381,13 +1447,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1402,13 +1468,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1423,13 +1489,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1444,13 +1510,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1465,13 +1531,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1486,13 +1552,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1509,13 +1575,13 @@
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1532,13 +1598,13 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1569,13 +1635,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1607,7 +1673,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1619,13 +1685,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1651,7 +1717,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1663,13 +1729,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1695,7 +1761,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1707,13 +1773,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1739,7 +1805,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1751,13 +1817,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1783,7 +1849,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1795,13 +1861,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1827,7 +1893,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1839,13 +1905,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -1871,7 +1937,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1883,13 +1949,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -1915,7 +1981,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1927,13 +1993,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -1959,7 +2025,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1971,13 +2037,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2003,25 +2069,25 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2047,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2059,13 +2125,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2091,7 +2157,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2103,13 +2169,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2145,13 +2211,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -2160,7 +2226,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -2171,13 +2237,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2186,7 +2252,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2197,13 +2263,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2212,7 +2278,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2223,13 +2289,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2238,7 +2304,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2249,13 +2315,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2264,7 +2330,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2275,13 +2341,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2290,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2301,13 +2367,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2316,7 +2382,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2327,13 +2393,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2342,7 +2408,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2353,13 +2419,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2368,7 +2434,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2379,13 +2445,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2394,7 +2460,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2405,13 +2471,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2420,7 +2486,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2431,13 +2497,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2446,7 +2512,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2457,13 +2523,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2472,7 +2538,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2483,13 +2549,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2498,7 +2564,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2509,13 +2575,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2524,10 +2590,10 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2535,13 +2601,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2550,7 +2616,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2561,13 +2627,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2576,7 +2642,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2587,13 +2653,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2602,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2623,7 +2689,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2635,10 +2701,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2646,7 +2712,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2658,10 +2724,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2669,7 +2735,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2681,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2692,7 +2758,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2704,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2715,7 +2781,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2727,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2738,7 +2804,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2750,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2761,7 +2827,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2773,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2784,7 +2850,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2796,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2807,19 +2873,19 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2830,7 +2896,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2842,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2853,7 +2919,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2865,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -2876,7 +2942,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -2888,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2">
         <v>2500</v>
@@ -2909,10 +2975,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -2923,10 +2989,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2937,10 +3003,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2951,10 +3017,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2965,10 +3031,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2979,10 +3045,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2993,10 +3059,10 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3007,10 +3073,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3021,10 +3087,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -3035,10 +3101,10 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -3049,10 +3115,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
@@ -3063,10 +3129,10 @@
         <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -3077,10 +3143,10 @@
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3091,10 +3157,10 @@
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -3105,13 +3171,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3119,13 +3185,13 @@
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3133,10 +3199,10 @@
         <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2"/>
     </row>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -116,6 +116,9 @@
     <t>100年01月14曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t>99年09月17日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
@@ -922,7 +928,7 @@
         <v>5232800</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
@@ -975,7 +981,7 @@
         <v>223400</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>22</v>
@@ -1028,7 +1034,7 @@
         <v>208700</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>22</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1114,7 +1120,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -1123,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1132,7 +1138,7 @@
         <v>505000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1158,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>1198</v>
@@ -1167,7 +1173,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1176,7 +1182,7 @@
         <v>389100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1212,13 +1218,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1233,13 +1239,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1254,20 +1260,20 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1275,16 +1281,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1296,16 +1302,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1317,13 +1323,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1338,13 +1344,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1359,13 +1365,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1380,13 +1386,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1401,13 +1407,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1424,13 +1430,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1447,13 +1453,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1468,13 +1474,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1489,13 +1495,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1510,13 +1516,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1531,13 +1537,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1552,13 +1558,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1575,13 +1581,13 @@
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1598,13 +1604,13 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1635,13 +1641,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1673,7 +1679,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1685,13 +1691,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1717,7 +1723,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1729,13 +1735,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1761,7 +1767,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1773,13 +1779,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1805,7 +1811,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1817,13 +1823,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1849,7 +1855,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1861,13 +1867,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1893,7 +1899,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1905,13 +1911,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -1937,7 +1943,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1949,13 +1955,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -1981,7 +1987,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1993,13 +1999,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2025,7 +2031,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2037,13 +2043,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2069,25 +2075,25 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2113,7 +2119,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2125,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2157,7 +2163,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2169,13 +2175,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2211,13 +2217,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -2226,7 +2232,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -2237,13 +2243,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2252,7 +2258,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2263,13 +2269,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2278,7 +2284,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2289,13 +2295,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2304,7 +2310,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2315,13 +2321,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2330,7 +2336,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2341,13 +2347,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2356,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2367,13 +2373,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2382,7 +2388,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2393,13 +2399,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2408,7 +2414,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2419,13 +2425,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2434,7 +2440,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2445,13 +2451,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2460,7 +2466,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2471,13 +2477,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2486,7 +2492,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2497,13 +2503,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2512,7 +2518,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2523,13 +2529,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2538,7 +2544,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2549,13 +2555,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2564,7 +2570,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2575,13 +2581,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2590,10 +2596,10 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2601,13 +2607,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2616,7 +2622,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2627,13 +2633,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2642,7 +2648,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2653,13 +2659,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2689,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2701,10 +2707,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2712,7 +2718,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2724,10 +2730,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2735,7 +2741,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2747,7 +2753,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2758,7 +2764,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2770,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2781,7 +2787,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2793,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2804,7 +2810,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2816,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2827,7 +2833,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2839,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2850,7 +2856,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2862,7 +2868,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2873,19 +2879,19 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2896,7 +2902,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2908,7 +2914,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2919,7 +2925,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2931,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -2942,7 +2948,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -2954,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>2500</v>
@@ -2975,10 +2981,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -2989,10 +2995,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -3003,10 +3009,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -3017,10 +3023,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -3031,10 +3037,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3045,10 +3051,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -3059,10 +3065,10 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3073,10 +3079,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3087,10 +3093,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -3101,10 +3107,10 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -3115,10 +3121,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
@@ -3129,10 +3135,10 @@
         <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -3143,10 +3149,10 @@
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3157,10 +3163,10 @@
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -3171,13 +3177,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3185,13 +3191,13 @@
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3199,10 +3205,10 @@
         <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2"/>
     </row>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -137,39 +137,48 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
     <t>中華郵政劃撥儲金</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行樹林分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -179,16 +188,13 @@
     <t>黃〇誼</t>
   </si>
   <si>
-    <t>1624866</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>太平洋電線電纜股份有限公司</t>
@@ -1210,13 +1216,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1227,397 +1233,769 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>763954</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>763954</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1624866</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30298</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
         <v>50</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>30298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2">
         <v>37420</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>2162368</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>10374740</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>116250</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>206247</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>1079</v>
-      </c>
-      <c r="G10" s="2">
         <v>32370</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="G11" s="2">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>300434</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>22964</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>10939</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>88230</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>129.18</v>
-      </c>
-      <c r="G17" s="2">
         <v>3875.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="2">
-        <v>19013</v>
-      </c>
-      <c r="G18" s="2">
         <v>570390</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>358925</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1641,13 +2019,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1679,7 +2057,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1691,13 +2069,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1723,7 +2101,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1735,13 +2113,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1767,7 +2145,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1779,13 +2157,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1811,7 +2189,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1823,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1855,7 +2233,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1867,13 +2245,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1899,7 +2277,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1911,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -1943,7 +2321,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1955,13 +2333,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -1987,7 +2365,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1999,13 +2377,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2031,7 +2409,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2043,13 +2421,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2075,25 +2453,25 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2119,7 +2497,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2131,13 +2509,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2163,7 +2541,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2175,13 +2553,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2217,13 +2595,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -2232,7 +2610,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -2243,13 +2621,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2258,7 +2636,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2269,13 +2647,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2284,7 +2662,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2295,13 +2673,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2310,7 +2688,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2321,13 +2699,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2336,7 +2714,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2347,13 +2725,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2362,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2373,13 +2751,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2388,7 +2766,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2399,13 +2777,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2414,7 +2792,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2425,13 +2803,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2440,7 +2818,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2451,13 +2829,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2466,7 +2844,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2477,13 +2855,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2492,7 +2870,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2503,13 +2881,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2518,7 +2896,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2529,13 +2907,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2544,7 +2922,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2555,13 +2933,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2570,7 +2948,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2581,13 +2959,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2596,10 +2974,10 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2607,13 +2985,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2622,7 +3000,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2633,13 +3011,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2648,7 +3026,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2659,13 +3037,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2674,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2695,7 +3073,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2707,10 +3085,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2718,7 +3096,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2730,10 +3108,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2741,7 +3119,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2753,7 +3131,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2764,7 +3142,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2776,7 +3154,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2787,7 +3165,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2799,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2810,7 +3188,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2822,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2833,7 +3211,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2845,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2856,7 +3234,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2868,7 +3246,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2879,19 +3257,19 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2902,7 +3280,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2914,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2925,7 +3303,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2937,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -2948,7 +3326,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -2960,7 +3338,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2">
         <v>2500</v>
@@ -2981,10 +3359,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -2995,10 +3373,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -3009,10 +3387,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -3023,10 +3401,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -3037,10 +3415,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3051,10 +3429,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -3065,10 +3443,10 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3079,10 +3457,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3093,10 +3471,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -3107,10 +3485,10 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -3121,10 +3499,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
@@ -3135,10 +3513,10 @@
         <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -3149,10 +3527,10 @@
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3163,10 +3541,10 @@
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -3177,13 +3555,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3191,13 +3569,13 @@
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3205,10 +3583,10 @@
         <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2"/>
     </row>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -239,6 +239,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>坦全穩定月收</t>
   </si>
   <si>
@@ -281,15 +284,12 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>464365.27</t>
+    <t>fund</t>
   </si>
   <si>
     <t>鐯德（自行保存）</t>
   </si>
   <si>
-    <t>60000</t>
-  </si>
-  <si>
     <t>奈普(自行保存）</t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>仁寶（自行保存）</t>
   </si>
   <si>
-    <t>5000</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>南山人壽g</t>
@@ -2587,41 +2587,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2110.818</v>
-      </c>
-      <c r="F1" s="1">
-        <v>11.55</v>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1">
-        <v>719939.86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2641,19 +2662,40 @@
       <c r="H2" s="2">
         <v>719939.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2667,19 +2709,40 @@
       <c r="H3" s="2">
         <v>215725.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2693,13 +2756,34 @@
       <c r="H4" s="2">
         <v>14906.47</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2719,13 +2803,34 @@
       <c r="H5" s="2">
         <v>429546.37</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2745,13 +2850,34 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2771,13 +2897,34 @@
       <c r="H7" s="2">
         <v>205171.61</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2797,13 +2944,34 @@
       <c r="H8" s="2">
         <v>269723.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2823,19 +2991,40 @@
       <c r="H9" s="2">
         <v>91408.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2844,18 +3033,39 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2875,13 +3085,34 @@
       <c r="H11" s="2">
         <v>248424.36</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -2901,13 +3132,34 @@
       <c r="H12" s="2">
         <v>247695.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -2927,13 +3179,34 @@
       <c r="H13" s="2">
         <v>179468.93</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -2953,13 +3226,34 @@
       <c r="H14" s="2">
         <v>197327.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -2976,16 +3270,37 @@
       <c r="G15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="2">
+        <v>464365.27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -3005,13 +3320,34 @@
       <c r="H16" s="2">
         <v>401666.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -3031,13 +3367,34 @@
       <c r="H17" s="2">
         <v>419241.68</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -3056,6 +3413,27 @@
       </c>
       <c r="H18" s="2">
         <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3065,38 +3443,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -3110,11 +3509,32 @@
       <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>117</v>
       </c>
@@ -3136,8 +3556,29 @@
       <c r="G3" s="2">
         <v>44620</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>118</v>
       </c>
@@ -3159,8 +3600,29 @@
       <c r="G4" s="2">
         <v>71990</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>120</v>
       </c>
@@ -3182,8 +3644,29 @@
       <c r="G5" s="2">
         <v>430000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>121</v>
       </c>
@@ -3205,8 +3688,29 @@
       <c r="G6" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>122</v>
       </c>
@@ -3228,8 +3732,29 @@
       <c r="G7" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>123</v>
       </c>
@@ -3251,8 +3776,29 @@
       <c r="G8" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>124</v>
       </c>
@@ -3262,8 +3808,8 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
+      <c r="D9" s="2">
+        <v>5000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -3274,8 +3820,29 @@
       <c r="G9" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>125</v>
       </c>
@@ -3297,8 +3864,29 @@
       <c r="G10" s="2">
         <v>30400</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>126</v>
       </c>
@@ -3320,8 +3908,29 @@
       <c r="G11" s="2">
         <v>62100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>127</v>
       </c>
@@ -3342,6 +3951,27 @@
       </c>
       <c r="G12" s="2">
         <v>2500</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
+++ b/legislator/property/output/normal/黃志雄_2013-12-30_財產申報表_tmp22e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -323,33 +323,36 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽g</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>中泰人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>南山伴我一生變額壽險</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>中泰人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
@@ -377,7 +380,10 @@
     <t>南山人壽鴻利發還本終身分紅保險</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>富邦人壽安心一生终身醫療保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -3981,38 +3987,80 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>138</v>
       </c>
@@ -4020,13 +4068,34 @@
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>139</v>
       </c>
@@ -4034,13 +4103,34 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>140</v>
       </c>
@@ -4048,13 +4138,34 @@
         <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>141</v>
       </c>
@@ -4062,13 +4173,34 @@
         <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>142</v>
       </c>
@@ -4076,13 +4208,34 @@
         <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>143</v>
       </c>
@@ -4090,13 +4243,34 @@
         <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>144</v>
       </c>
@@ -4104,13 +4278,34 @@
         <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>145</v>
       </c>
@@ -4118,13 +4313,34 @@
         <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>146</v>
       </c>
@@ -4132,13 +4348,34 @@
         <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>147</v>
       </c>
@@ -4146,13 +4383,34 @@
         <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>148</v>
       </c>
@@ -4160,13 +4418,34 @@
         <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>149</v>
       </c>
@@ -4174,13 +4453,34 @@
         <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>150</v>
       </c>
@@ -4188,13 +4488,34 @@
         <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>151</v>
       </c>
@@ -4202,23 +4523,67 @@
         <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
